--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragagg5k/Desktop/Coding_Stuff/venomsend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A392BF7A-0941-2847-83D3-2C096B3134AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE88FD4-8AA8-0F40-A4DC-DB1F6487CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17260" xr2:uid="{B741771B-FB47-2C48-8B80-A41168D84DFD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>chirag</t>
+  </si>
+  <si>
+    <t>simar</t>
+  </si>
+  <si>
+    <t>+919815816740</t>
   </si>
 </sst>
 </file>
@@ -80,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1244A38-1DA9-2942-B505-DD1AB034A8F6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,6 +451,14 @@
         <v>9667658415</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
